--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-G.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-G.RS0001.a205.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'F': 600.0 ton, 1.97 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'G': 650.0 ton, 1.97 COP liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>24b01636-b001-43f8-8d09-0218be5aba33</t>
+          <t>2b97164d-8b25-4ca5-aaf1-3ad3e0c315c9</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'F' for Energy Cost Budget (ECB) Path A</t>
+          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'G' for Energy Cost Budget (ECB) Path A</t>
         </is>
       </c>
       <c r="D13" s="4" t="n"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1169486.498546819</v>
+        <v>1219036.856738654</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,19 +2150,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>270011.1344455883</v>
+        <v>305679.459628151</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>518894.9391530867</v>
+        <v>552588.9296942553</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>788906.0735986751</v>
+        <v>858268.3893224064</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4028721358831</v>
+        <v>278.3797064059245</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.2009144484581</v>
+        <v>287.2063072363435</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>15000</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,19 +2194,19 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>395427.3963301849</v>
+        <v>436786.9572991618</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1037789.878306173</v>
+        <v>1105177.859388511</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1433217.274636358</v>
+        <v>1541964.816687672</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.7668553828772</v>
+        <v>279.7205239229602</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.240703904799</v>
+        <v>288.2247835474573</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>15000</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,19 +2238,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>574869.9295782193</v>
+        <v>618003.9609305538</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1556684.81745926</v>
+        <v>1657766.789082766</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>2131554.74703748</v>
+        <v>2275770.75001332</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.1308386298714</v>
+        <v>281.0613414399958</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.3676809612291</v>
+        <v>289.3179060651908</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>15000</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,19 +2282,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>808338.7341896917</v>
+        <v>849330.4705223272</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2075579.756612347</v>
+        <v>2210355.718777021</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2883918.490802038</v>
+        <v>3059686.189299349</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.4948218768656</v>
+        <v>282.4021589570315</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.5818456177485</v>
+        <v>290.4856747895439</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>15000</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,19 +2326,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>324212.112165451</v>
+        <v>383302.2575332188</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>514946.6923805214</v>
+        <v>558114.4215674743</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>839158.8045459725</v>
+        <v>941416.6791006931</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3924936525979</v>
+        <v>278.3931136167747</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.3609314946124</v>
+        <v>296.4092615325461</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>15000</v>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,19 +2370,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>474803.943309712</v>
+        <v>547702.5737924851</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1029893.384761043</v>
+        <v>1116228.843134949</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1504697.328070755</v>
+        <v>1663931.416927434</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7460984163068</v>
+        <v>279.7473383446604</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4388202731074</v>
+        <v>297.4894147304191</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>15000</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,19 +2414,19 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>690267.0679549965</v>
+        <v>774936.9672313342</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1544840.077141564</v>
+        <v>1674343.264702423</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2235107.145096561</v>
+        <v>2449280.231933757</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0997031800158</v>
+        <v>281.1015630725462</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.6217729011613</v>
+        <v>298.6635043227317</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>15000</v>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,19 +2458,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>970601.4861013041</v>
+        <v>1065005.437849766</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2059786.769522086</v>
+        <v>2232457.686269897</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3030388.25562339</v>
+        <v>3297463.124119664</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.4533079437247</v>
+        <v>282.4557878004319</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.9097893787739</v>
+        <v>299.9315303094839</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>15000</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,19 +2502,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>365345.9385770847</v>
+        <v>429973.0431261936</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>493884.6485286696</v>
+        <v>538888.6138577486</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>859230.5871057543</v>
+        <v>968861.6569839423</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.3371293142825</v>
+        <v>278.3464635693866</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.471999315785</v>
+        <v>305.5290348940242</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>15000</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,19 +2546,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>535043.8364254083</v>
+        <v>614390.7001674628</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>987769.2970573392</v>
+        <v>1077777.227715497</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1522813.133482747</v>
+        <v>1692167.92788296</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.6353697396762</v>
+        <v>279.6540382498843</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.5501847864539</v>
+        <v>306.6138572949817</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>15000</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,19 +2590,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>777843.4560217032</v>
+        <v>869293.0956780586</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1481653.945586009</v>
+        <v>1616665.841573246</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2259497.401607712</v>
+        <v>2485958.937251304</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.9336101650698</v>
+        <v>280.9616129303819</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.747145554484</v>
+        <v>307.804393452744</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>15000</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,19 +2634,19 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1093744.79736597</v>
+        <v>1194680.229657981</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1975538.594114678</v>
+        <v>2155554.455430994</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3069283.391480648</v>
+        <v>3350234.685088975</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.2318505904635</v>
+        <v>282.2691876108797</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>309.062881619875</v>
+        <v>309.100643367311</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>15000</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,19 +2678,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>387701.7769897492</v>
+        <v>438739.1487385425</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>455708.8075975309</v>
+        <v>494911.5065650782</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>843410.5845872802</v>
+        <v>933650.6553036206</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2367791209371</v>
+        <v>278.2397562637603</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.5247975123208</v>
+        <v>314.5548242348877</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>15000</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,19 +2722,19 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>567783.6380430326</v>
+        <v>626916.633713795</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>911417.6151950619</v>
+        <v>989823.0131301563</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1479201.253238095</v>
+        <v>1616739.646843951</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.4346693529853</v>
+        <v>279.4406236386318</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.5611651434498</v>
+        <v>315.5826390438312</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>15000</v>
@@ -2751,13 +2751,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,19 +2766,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>825440.3793128066</v>
+        <v>887015.8697138323</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1367126.422792593</v>
+        <v>1484734.519695234</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>2192566.802105399</v>
+        <v>2371750.389409067</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.6325595850334</v>
+        <v>280.6414910135032</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.7239833483436</v>
+        <v>316.7186714374582</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>15000</v>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,19 +2810,19 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1160672.000799071</v>
+        <v>1219036.856738654</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1822835.230390124</v>
+        <v>1979646.026260313</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2983507.231189195</v>
+        <v>3198682.882998967</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.8304498170817</v>
+        <v>281.8423583883746</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>318.0132521270018</v>
+        <v>317.9629214157687</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>15000</v>
@@ -2839,13 +2839,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,19 +2854,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>260335.8898891346</v>
+        <v>288269.0067977225</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>547898.5588469139</v>
+        <v>574936.9587271772</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>808234.4487360484</v>
+        <v>863205.9655248998</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.3711439357035</v>
+        <v>282.3258656915147</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.232106581458</v>
+        <v>287.2136625539893</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>15000</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,19 +2898,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>381258.1407856981</v>
+        <v>411909.0714043939</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1095797.117693828</v>
+        <v>1149873.917454354</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1477055.258479526</v>
+        <v>1561782.988858748</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.8145100936292</v>
+        <v>283.7239536052516</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.3114496458538</v>
+        <v>288.2543059174419</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>15000</v>
@@ -2927,13 +2927,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,19 +2942,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>554270.7525544976</v>
+        <v>582804.5765038467</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1643695.676540742</v>
+        <v>1724810.876181532</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2197966.429095239</v>
+        <v>2307615.452685378</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.2578762515549</v>
+        <v>285.1220415189885</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.4748561378678</v>
+        <v>289.3653438957948</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>15000</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,19 +2986,19 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>779373.7251955327</v>
+        <v>800955.5220960809</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2191594.235387655</v>
+        <v>2299747.834908709</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2970967.960583188</v>
+        <v>3100703.35700479</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>286.7012424094806</v>
+        <v>286.5201294327254</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>290.7223260574999</v>
+        <v>290.5467764890481</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>15000</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,19 +3030,19 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>316450.2864261534</v>
+        <v>368659.1636540832</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>548939.2507443076</v>
+        <v>588065.307696624</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>865389.5371704611</v>
+        <v>956724.4713507071</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.3738855006178</v>
+        <v>282.3577902107909</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.4034141028285</v>
+        <v>296.4321465477375</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>15000</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,19 +3074,19 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>463436.8619144908</v>
+        <v>526778.9813839729</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1097878.501488615</v>
+        <v>1176130.615393248</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1561315.363403106</v>
+        <v>1702909.596777221</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.8199932234578</v>
+        <v>283.787802643804</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.5305173616875</v>
+        <v>297.5476867675247</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>15000</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,19 +3118,19 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>673741.6745659043</v>
+        <v>745332.4591999729</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>1646817.752232923</v>
+        <v>1764195.923089872</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>2320559.426798827</v>
+        <v>2509528.382289845</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.2661009462978</v>
+        <v>285.2178150768171</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.7601691806972</v>
+        <v>298.7535747792442</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>15000</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,19 +3162,19 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>947364.724380394</v>
+        <v>1024319.597102083</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>2195757.002977231</v>
+        <v>2352261.230786496</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3143121.727357625</v>
+        <v>3376580.827888579</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.7122086691378</v>
+        <v>286.6478275098303</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.0923695598573</v>
+        <v>300.0498105828959</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>15000</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,19 +3206,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>361650.6036024959</v>
+        <v>420753.9365409489</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>532866.1455624145</v>
+        <v>576442.357083126</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>894516.7491649104</v>
+        <v>997196.2936240749</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3315430346673</v>
+        <v>282.3295264045979</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5293320884077</v>
+        <v>305.5715314819661</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>15000</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,19 +3250,19 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>529632.0718677358</v>
+        <v>601217.4711932812</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1065732.291124829</v>
+        <v>1152884.714166252</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1595364.362992565</v>
+        <v>1754102.185359533</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7353082915567</v>
+        <v>283.7312750314179</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.668065646889</v>
+        <v>306.7067469498907</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>15000</v>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>769975.8658166854</v>
+        <v>850654.4720922507</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>1598598.436687244</v>
+        <v>1729327.071249378</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>2368574.302503929</v>
+        <v>2579981.543341629</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1390735484462</v>
+        <v>285.133023658238</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9243731358512</v>
+        <v>307.9454095525442</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>15000</v>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,19 +3338,19 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1082681.985449345</v>
+        <v>1169064.939237858</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>2131464.582249658</v>
+        <v>2305769.428332504</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>3214146.567699003</v>
+        <v>3474834.367570362</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5428388053356</v>
+        <v>286.534772285058</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.2982545552941</v>
+        <v>309.2875192899268</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>15000</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,19 +3382,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>390646.1027232219</v>
+        <v>437688.5998691519</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>499679.2433012348</v>
+        <v>540068.1068866834</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>890325.3460244567</v>
+        <v>977756.7067558353</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2441165378519</v>
+        <v>282.2410742729355</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.6012707016471</v>
+        <v>314.6211887253245</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>15000</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>572095.5604425499</v>
+        <v>625415.4990130421</v>
       </c>
       <c r="G34" s="5" t="n">
-        <v>999358.4866024697</v>
+        <v>1080136.213773367</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1571454.047045019</v>
+        <v>1705551.712786409</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.560455297926</v>
+        <v>283.5543707680932</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.7115413821978</v>
+        <v>315.7162707634446</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>15000</v>
@@ -3455,13 +3455,13 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,19 +3470,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>831709.0257170823</v>
+        <v>884891.9345196771</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1499037.729903704</v>
+        <v>1620204.32066005</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2330746.755620787</v>
+        <v>2505096.255179727</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.8767940580001</v>
+        <v>284.8676672632509</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.9492229407996</v>
+        <v>316.919311262207</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>15000</v>
@@ -3499,13 +3499,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,19 +3514,19 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1169486.498546819</v>
+        <v>1216117.906389057</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1998716.973204939</v>
+        <v>2160272.427546734</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3168203.471751758</v>
+        <v>3376390.333935791</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.1931328180742</v>
+        <v>286.1809637584086</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.3143153774525</v>
+        <v>318.2303102216118</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>15000</v>
@@ -3543,13 +3543,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,19 +3558,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>256219.4927527292</v>
+        <v>279073.4741868504</v>
       </c>
       <c r="G37" s="5" t="n">
-        <v>558792.0120469137</v>
+        <v>580880.7936312923</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>815011.5047996429</v>
+        <v>859954.2678181427</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.2914820101366</v>
+        <v>286.2318489037976</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.2430433949552</v>
+        <v>287.208818624794</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>15000</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,19 +3602,19 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>375229.7367895</v>
+        <v>398769.5274038452</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>1117584.024093827</v>
+        <v>1161761.587262585</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1492813.760883328</v>
+        <v>1560531.11466643</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>287.7662973536064</v>
+        <v>287.6470311409285</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.336880718014</v>
+        <v>288.2524410485346</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>15000</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,19 +3646,19 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>545506.6957063227</v>
+        <v>564213.6133318427</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>1676376.036140741</v>
+        <v>1742642.380893877</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>2221882.731847064</v>
+        <v>2306855.994225719</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.2411126970763</v>
+        <v>289.0622133780594</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.5134522687374</v>
+        <v>289.3642125596937</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>15000</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,19 +3690,19 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>767050.3695031974</v>
+        <v>775405.731970843</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>2235168.048187655</v>
+        <v>2323523.174525169</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3002218.417690852</v>
+        <v>3098928.906496012</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>290.7159280405463</v>
+        <v>290.4773956151904</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>290.7727580471254</v>
+        <v>290.5441331582713</v>
       </c>
       <c r="K40" s="5" t="n">
         <v>15000</v>
@@ -3719,13 +3719,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,19 +3734,19 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>311738.4459232619</v>
+        <v>359671.6130445069</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>564821.6426142663</v>
+        <v>601611.9996969667</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>876560.0885375282</v>
+        <v>961283.6127414736</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3073959664646</v>
+        <v>286.2823557115628</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.4215056355386</v>
+        <v>296.4389624241412</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>15000</v>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,19 +3778,19 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>456536.4397307641</v>
+        <v>513936.6239383519</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1129643.285228533</v>
+        <v>1203223.999393933</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1586179.724959297</v>
+        <v>1717160.623332285</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.7981252662626</v>
+        <v>287.748044756459</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.5707870310734</v>
+        <v>297.5689919272682</v>
       </c>
       <c r="K42" s="5" t="n">
         <v>15000</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,19 +3822,19 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>663709.8830116676</v>
+        <v>727161.9812668511</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>1694464.927842799</v>
+        <v>1804835.9990909</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>2358174.810854466</v>
+        <v>2531997.980357751</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.2888545660605</v>
+        <v>289.2137338013551</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>298.8210900724851</v>
+        <v>298.787166631337</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>15000</v>
@@ -3851,13 +3851,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,19 +3866,19 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>933258.7757659726</v>
+        <v>999347.6850300046</v>
       </c>
       <c r="G44" s="5" t="n">
-        <v>2259286.570457065</v>
+        <v>2406447.998787867</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>3192545.346223038</v>
+        <v>3405795.683817871</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>290.7795838658585</v>
+        <v>290.6794228462513</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.1724147597737</v>
+        <v>300.0934865363475</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>15000</v>
@@ -3895,13 +3895,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B45" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,19 +3910,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>357833.1262846253</v>
+        <v>413990.9335654737</v>
       </c>
       <c r="G45" s="5" t="n">
-        <v>553737.476102332</v>
+        <v>597591.9061796964</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>911570.6023869573</v>
+        <v>1011582.83974517</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.2781416133441</v>
+        <v>286.2725616798103</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.5570411004414</v>
+        <v>305.5931085761135</v>
       </c>
       <c r="K45" s="5" t="n">
         <v>15000</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,19 +3954,19 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>524041.4316170862</v>
+        <v>591553.7813416425</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>1107474.952204664</v>
+        <v>1195183.812359393</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1631516.38382175</v>
+        <v>1786737.593701035</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.7396165600214</v>
+        <v>287.728456692954</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.7268052623388</v>
+        <v>306.7556938807519</v>
       </c>
       <c r="K46" s="5" t="n">
         <v>15000</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,19 +3998,19 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>761848.2272235706</v>
+        <v>836981.4479652353</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1661212.428306996</v>
+        <v>1792775.718539089</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2423060.655530566</v>
+        <v>2629757.166504325</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.2010915066988</v>
+        <v>289.1843517060976</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.0129022789153</v>
+        <v>308.0200635590156</v>
       </c>
       <c r="K47" s="5" t="n">
         <v>15000</v>
@@ -4027,13 +4027,13 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B48" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,19 +4042,19 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1071253.513104079</v>
+        <v>1150273.933436252</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2214949.904409328</v>
+        <v>2390367.624718786</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3286203.417513407</v>
+        <v>3540641.558155038</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.6625664533762</v>
+        <v>290.6402467192412</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.4153321501709</v>
+        <v>309.3862176109045</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>15000</v>
@@ -4071,13 +4071,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,19 +4086,19 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>389632.8931376794</v>
+        <v>435254.6522399477</v>
       </c>
       <c r="G49" s="5" t="n">
-        <v>525539.5125111112</v>
+        <v>568820.5130794814</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>915172.4056487905</v>
+        <v>1004075.165319429</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2037189507748</v>
+        <v>286.2024668085401</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.6417725359663</v>
+        <v>314.6607889850202</v>
       </c>
       <c r="K49" s="5" t="n">
         <v>15000</v>
@@ -4115,13 +4115,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B50" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,19 +4130,19 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>570611.7296769391</v>
+        <v>621937.6186854637</v>
       </c>
       <c r="G50" s="5" t="n">
-        <v>1051079.025022222</v>
+        <v>1137641.026158963</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>1621690.754699162</v>
+        <v>1759578.644844427</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.590771234883</v>
+        <v>287.5882669504135</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.7934294945504</v>
+        <v>315.7975627788902</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>15000</v>
@@ -4159,13 +4159,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B51" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,19 +4174,19 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>829551.8416280454</v>
+        <v>879971.1286618826</v>
       </c>
       <c r="G51" s="5" t="n">
-        <v>1576618.537533334</v>
+        <v>1706461.539238444</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>2406170.379161379</v>
+        <v>2586432.667900327</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9778235189912</v>
+        <v>288.9740670922869</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.0721668685955</v>
+        <v>317.0416946859422</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>15000</v>
@@ -4203,13 +4203,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B52" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,19 +4218,19 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1166453.228990999</v>
+        <v>1209355.182169205</v>
       </c>
       <c r="G52" s="5" t="n">
-        <v>2102158.050044445</v>
+        <v>2275282.052317926</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>3268611.279035443</v>
+        <v>3484637.234487131</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.3648758030994</v>
+        <v>290.3598672341603</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.4779846581016</v>
+        <v>318.3931847061764</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>15000</v>
@@ -4247,13 +4247,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B53" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,19 +4262,19 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>259499.2761846602</v>
+        <v>279674.0312215316</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>551575.2987530864</v>
+        <v>570420.4344066008</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>811074.5749377466</v>
+        <v>850094.4656281325</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.1637355519102</v>
+        <v>290.0975557504279</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.236689977299</v>
+        <v>287.1941308561282</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>15000</v>
@@ -4291,13 +4291,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B54" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,19 +4306,19 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>380032.9321306042</v>
+        <v>399627.6664498319</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1103150.597506173</v>
+        <v>1140840.868813202</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1483183.529636777</v>
+        <v>1540468.535263033</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.6219155482649</v>
+        <v>291.4895559453002</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.3213394502289</v>
+        <v>288.2225545944823</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>15000</v>
@@ -4335,13 +4335,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B55" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,19 +4350,19 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>552489.5517074921</v>
+        <v>565427.78266677</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>1654725.896259259</v>
+        <v>1711261.303219802</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>2207215.447966751</v>
+        <v>2276689.085886572</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.0800955446196</v>
+        <v>292.8815561401725</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.4897822050984</v>
+        <v>289.3192740748733</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>15000</v>
@@ -4379,13 +4379,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,19 +4394,19 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>776869.1349153239</v>
+        <v>777074.3798723466</v>
       </c>
       <c r="G56" s="5" t="n">
-        <v>2206301.195012345</v>
+        <v>2281681.737626403</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>2983170.329927669</v>
+        <v>3058756.11749875</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>294.5382755409742</v>
+        <v>294.2735563350448</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>290.7420182419075</v>
+        <v>290.4842892973011</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>15000</v>
@@ -4423,13 +4423,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,19 +4438,19 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>312772.0464716112</v>
+        <v>359022.1709255188</v>
       </c>
       <c r="G57" s="5" t="n">
-        <v>562593.8679903977</v>
+        <v>598754.4975685029</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>875365.914462009</v>
+        <v>957776.6684940218</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.1928649514439</v>
+        <v>290.1666995241497</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.4195715824521</v>
+        <v>296.4337195732409</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>15000</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B58" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,19 +4482,19 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>458050.1327661215</v>
+        <v>513008.6327431313</v>
       </c>
       <c r="G58" s="5" t="n">
-        <v>1125187.735980795</v>
+        <v>1197508.995137006</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1583237.868746917</v>
+        <v>1710517.627880137</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.6801743473323</v>
+        <v>291.6278434927438</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.5660224777272</v>
+        <v>297.5590607073146</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>15000</v>
@@ -4511,13 +4511,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,19 +4526,19 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>665910.480685766</v>
+        <v>725848.9790703083</v>
       </c>
       <c r="G59" s="5" t="n">
-        <v>1687781.603971193</v>
+        <v>1796263.492705509</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>2353692.084656959</v>
+        <v>2522112.471775817</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.1674837432207</v>
+        <v>293.0889874613379</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.8138299664288</v>
+        <v>298.7723878826855</v>
       </c>
       <c r="K59" s="5" t="n">
         <v>15000</v>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,19 +4570,19 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>936353.0902305447</v>
+        <v>997543.2099070501</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>2250375.471961591</v>
+        <v>2395017.990274012</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>3186728.562192135</v>
+        <v>3392561.200181062</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.654793139109</v>
+        <v>294.550131429932</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.1629940485568</v>
+        <v>300.0737010993536</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>15000</v>
@@ -4599,13 +4599,13 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,19 +4614,19 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>357447.0851048548</v>
+        <v>413467.9952158286</v>
       </c>
       <c r="G61" s="5" t="n">
-        <v>556498.6401484223</v>
+        <v>602337.2611474603</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>913945.7252532771</v>
+        <v>1015805.256363289</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.1767512144211</v>
+        <v>290.1754425622656</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.5609001877237</v>
+        <v>305.5994414012496</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>15000</v>
@@ -4643,13 +4643,13 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B62" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,19 +4658,19 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>523476.0798996234</v>
+        <v>590806.5520352495</v>
       </c>
       <c r="G62" s="5" t="n">
-        <v>1112997.280296845</v>
+        <v>1204674.522294921</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1636473.360196468</v>
+        <v>1795481.07433017</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.6479468732866</v>
+        <v>291.6453295689755</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.7348593317757</v>
+        <v>306.7688074455452</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>15000</v>
@@ -4687,13 +4687,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B63" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,19 +4702,19 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>761026.322355519</v>
+        <v>835924.2033214626</v>
       </c>
       <c r="G63" s="5" t="n">
-        <v>1669495.920445267</v>
+        <v>1807011.783442381</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>2430522.242800786</v>
+        <v>2642935.986763843</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.1191425321522</v>
+        <v>293.1152165756855</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.0250258271111</v>
+        <v>308.0398292931326</v>
       </c>
       <c r="K63" s="5" t="n">
         <v>15000</v>
@@ -4731,13 +4731,13 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,19 +4746,19 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>1070097.812472541</v>
+        <v>1148820.949074468</v>
       </c>
       <c r="G64" s="5" t="n">
-        <v>2225994.560593689</v>
+        <v>2409349.044589841</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>3296092.373066231</v>
+        <v>3558169.993664309</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.5903381910177</v>
+        <v>294.5851035823954</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.4313996737297</v>
+        <v>309.4125069440116</v>
       </c>
       <c r="K64" s="5" t="n">
         <v>15000</v>
@@ -4775,13 +4775,13 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,19 +4790,19 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>389073.8493810506</v>
+        <v>436322.6626620223</v>
       </c>
       <c r="G65" s="5" t="n">
-        <v>533289.6152271604</v>
+        <v>581168.725143473</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>922363.4646082111</v>
+        <v>1017491.387805495</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1153943408418</v>
+        <v>290.1237848647755</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.6534942882765</v>
+        <v>314.6809758015581</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>15000</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B66" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,19 +4834,19 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>569793.0181909397</v>
+        <v>623463.7042889558</v>
       </c>
       <c r="G66" s="5" t="n">
-        <v>1066579.230454321</v>
+        <v>1162337.450286946</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1636372.24864526</v>
+        <v>1785801.154575902</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.5252331261279</v>
+        <v>291.5420141739954</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.8173609956758</v>
+        <v>315.8370186684792</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>15000</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B67" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,19 +4878,19 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>828361.6038785389</v>
+        <v>882130.3665510104</v>
       </c>
       <c r="G67" s="5" t="n">
-        <v>1599868.845681481</v>
+        <v>1743506.175430419</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>2428230.44956002</v>
+        <v>2625636.541981429</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.9350719114141</v>
+        <v>292.9602434832154</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.1081257840513</v>
+        <v>317.1006830796179</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>15000</v>
@@ -4907,13 +4907,13 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B68" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.1479375604941207</v>
+        <v>0.1602656905352974</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,19 +4922,19 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>1164779.606443848</v>
+        <v>1212322.649448187</v>
       </c>
       <c r="G68" s="5" t="n">
-        <v>2133158.460908642</v>
+        <v>2324674.900573892</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>3297938.06735249</v>
+        <v>3536997.550022079</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.3449106967003</v>
+        <v>294.3784727924353</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5257886534029</v>
+        <v>318.4719690349743</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>15000</v>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-G.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-G.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'G': 650.0 ton, 1.97 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'G': 600.0+ ton, 6.28 COP, 7.03 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>2b97164d-8b25-4ca5-aaf1-3ad3e0c315c9</t>
+          <t>fdfd6663-12ab-4d4d-a8fb-569d2478a24a</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1219036.856738654</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>305679.459628151</v>
+        <v>95861.06507282215</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>552588.9296942553</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>858268.3893224064</v>
+        <v>648449.9947670775</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.3797064059245</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.2063072363435</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>436786.9572991618</v>
+        <v>136976.3705665715</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>1105177.859388511</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1541964.816687672</v>
+        <v>1242154.229955082</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.7205239229602</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.2247835474573</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>618003.9609305538</v>
+        <v>193806.0149219454</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1657766.789082766</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>2275770.75001332</v>
+        <v>1851572.804004712</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.0613414399958</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.3179060651908</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>849330.4705223272</v>
+        <v>266349.998138944</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>2210355.718777021</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3059686.189299349</v>
+        <v>2476705.716915966</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.4021589570315</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.4856747895439</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>383302.2575332188</v>
+        <v>120203.5710762152</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>558114.4215674743</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>941416.6791006931</v>
+        <v>678317.9926436895</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3931136167747</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.4092615325461</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>547702.5737924851</v>
+        <v>171759.5030125419</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1116228.843134949</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1663931.416927434</v>
+        <v>1287988.34614749</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7473383446604</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.4894147304191</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>774936.9672313342</v>
+        <v>243020.1987842597</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>1674343.264702423</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2449280.231933757</v>
+        <v>1917363.463486683</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.1015630725462</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.6635043227317</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1065005.437849766</v>
+        <v>333985.6583913689</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>2232457.686269897</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3297463.124119664</v>
+        <v>2566443.344661266</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.4557878004319</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.9315303094839</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>429973.0431261936</v>
+        <v>134839.5273821124</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>538888.6138577486</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>968861.6569839423</v>
+        <v>673728.141239861</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.3464635693866</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.5290348940242</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>614390.7001674628</v>
+        <v>192672.8965058206</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>1077777.227715497</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1692167.92788296</v>
+        <v>1270450.124221318</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.6540382498843</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.6138572949817</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>869293.0956780586</v>
+        <v>272610.2765083372</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>1616665.841573246</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2485958.937251304</v>
+        <v>1889276.118081583</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.9616129303819</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.804393452744</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1194680.229657981</v>
+        <v>374651.6673896624</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>2155554.455430994</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3350234.685088975</v>
+        <v>2530206.122820657</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.2691876108797</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>309.100643367311</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>438739.1487385425</v>
+        <v>137588.5777159584</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>494911.5065650782</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>933650.6553036206</v>
+        <v>632500.0842810365</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2397562637603</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.5548242348877</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>626916.633713795</v>
+        <v>196601.0287141262</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>989823.0131301563</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1616739.646843951</v>
+        <v>1186424.041844283</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.4406236386318</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.5826390438312</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>887015.8697138323</v>
+        <v>278168.1376651874</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>1484734.519695234</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>2371750.389409067</v>
+        <v>1762902.657360422</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.6414910135032</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.7186714374582</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1219036.856738654</v>
+        <v>382289.9045691418</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>1979646.026260313</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3198682.882998967</v>
+        <v>2361935.930829454</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.8423583883746</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.9629214157687</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>288269.0067977225</v>
+        <v>90401.14783220913</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>574936.9587271772</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>863205.9655248998</v>
+        <v>665338.1065593864</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.3258656915147</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.2136625539893</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>411909.0714043939</v>
+        <v>129174.6666459559</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>1149873.917454354</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1561782.988858748</v>
+        <v>1279048.58410031</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.7239536052516</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.2543059174419</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>582804.5765038467</v>
+        <v>182767.4895164225</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1724810.876181532</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2307615.452685378</v>
+        <v>1907578.365697954</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.1220415189885</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.3653438957948</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>800955.5220960809</v>
+        <v>251179.616443609</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>2299747.834908709</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3100703.35700479</v>
+        <v>2550927.451352318</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>286.5201294327254</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>290.5467764890481</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>368659.1636540832</v>
+        <v>115611.4974808129</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>588065.307696624</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>956724.4713507071</v>
+        <v>703676.8051774369</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.3577902107909</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.4321465477375</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>526778.9813839729</v>
+        <v>165197.8653550116</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>1176130.615393248</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1702909.596777221</v>
+        <v>1341328.480748259</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.787802643804</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.5476867675247</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>745332.4591999729</v>
+        <v>233736.2263698376</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>1764195.923089872</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>2509528.382289845</v>
+        <v>1997932.149459709</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.2178150768171</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.7535747792442</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1024319.597102083</v>
+        <v>321226.580525291</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>2352261.230786496</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3376580.827888579</v>
+        <v>2673487.811311787</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.6478275098303</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.0498105828959</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>420753.9365409489</v>
+        <v>131948.4159631231</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>576442.357083126</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>997196.2936240749</v>
+        <v>708390.7730462491</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3295264045979</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.5715314819661</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>601217.4711932812</v>
+        <v>188541.7724798577</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>1152884.714166252</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1754102.185359533</v>
+        <v>1341426.48664611</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7312750314179</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.7067469498907</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>850654.4720922507</v>
+        <v>266765.2049729438</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>1729327.071249378</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>2579981.543341629</v>
+        <v>1996092.276222322</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.133023658238</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.9454095525442</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1169064.939237858</v>
+        <v>366618.7134423815</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>2305769.428332504</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>3474834.367570362</v>
+        <v>2672388.141774885</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.534772285058</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.2875192899268</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>437688.5998691519</v>
+        <v>137259.1256367989</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>540068.1068866834</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>977756.7067558353</v>
+        <v>677327.2325234823</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2410742729355</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.6211887253245</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>625415.4990130421</v>
+        <v>196130.2729381019</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>1080136.213773367</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1705551.712786409</v>
+        <v>1276266.486711469</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5543707680932</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.7162707634446</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>884891.9345196771</v>
+        <v>277502.0716818693</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>1620204.32066005</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2505096.255179727</v>
+        <v>1897706.392341919</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.8676672632509</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.919311262207</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1216117.906389057</v>
+        <v>381374.5218681011</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>2160272.427546734</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3376390.333935791</v>
+        <v>2541646.949414835</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.1809637584086</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2303102216118</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>279073.4741868504</v>
+        <v>87517.42921054455</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>580880.7936312923</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>859954.2678181427</v>
+        <v>668398.2228418369</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.2318489037976</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.208818624794</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>398769.5274038452</v>
+        <v>125054.1062262403</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>1161761.587262585</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1560531.11466643</v>
+        <v>1286815.693488825</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>287.6470311409285</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.2524410485346</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>564213.6133318427</v>
+        <v>176937.3642846983</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>1742642.380893877</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>2306855.994225719</v>
+        <v>1919579.745178575</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.0622133780594</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.3642125596937</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>775405.731970843</v>
+        <v>243167.2033859185</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>2323523.174525169</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3098928.906496012</v>
+        <v>2566690.377911088</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>290.4773956151904</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>290.5441331582713</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>359671.6130445069</v>
+        <v>112793.0020055922</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>601611.9996969667</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>961283.6127414736</v>
+        <v>714405.0017025589</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.2823557115628</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.4389624241412</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>513936.6239383519</v>
+        <v>161170.5026258289</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>1203223.999393933</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1717160.623332285</v>
+        <v>1364394.502019762</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.748044756459</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.5689919272682</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>727161.9812668511</v>
+        <v>228037.9652905026</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>1804835.9990909</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>2531997.980357751</v>
+        <v>2032873.964381403</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.2137338013551</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>298.787166631337</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>999347.6850300046</v>
+        <v>313395.3899996133</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>2406447.998787867</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>3405795.683817871</v>
+        <v>2719843.38878748</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>290.6794228462513</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.0934865363475</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>413990.9335654737</v>
+        <v>129827.5385279551</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>597591.9061796964</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>1011582.83974517</v>
+        <v>727419.4447076515</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.2725616798103</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.5931085761135</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>591553.7813416425</v>
+        <v>185511.2397681132</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>1195183.812359393</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1786737.593701035</v>
+        <v>1380695.052127506</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.728456692954</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.7556938807519</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>836981.4479652353</v>
+        <v>262477.3452090704</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>1792775.718539089</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2629757.166504325</v>
+        <v>2055253.06374816</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.1843517060976</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>308.0200635590156</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1150273.933436252</v>
+        <v>360725.854850827</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>2390367.624718786</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3540641.558155038</v>
+        <v>2751093.479569613</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.6402467192412</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.3862176109045</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>435254.6522399477</v>
+        <v>136495.8397675069</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>568820.5130794814</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>1004075.165319429</v>
+        <v>705316.3528469882</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2024668085401</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.6607889850202</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>621937.6186854637</v>
+        <v>195039.6098205897</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>1137641.026158963</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>1759578.644844427</v>
+        <v>1332680.635979553</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5882669504135</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.7975627788902</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>879971.1286618826</v>
+        <v>275958.9071816487</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>1706461.539238444</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>2586432.667900327</v>
+        <v>1982420.446420093</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9740670922869</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>317.0416946859422</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1209355.182169205</v>
+        <v>379253.7318506842</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>2275282.052317926</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>3484637.234487131</v>
+        <v>2654535.78416861</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.3598672341603</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.3931847061764</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>279674.0312215316</v>
+        <v>87705.7638701633</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>570420.4344066008</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>850094.4656281325</v>
+        <v>658126.198276764</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.0975557504279</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.1941308561282</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>399627.6664498319</v>
+        <v>125323.2185932568</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>1140840.868813202</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1540468.535263033</v>
+        <v>1266164.087406458</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.4895559453002</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.2225545944823</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>565427.78266677</v>
+        <v>177318.1277346419</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>1711261.303219802</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>2276689.085886572</v>
+        <v>1888579.430954444</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>292.8815561401725</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.3192740748733</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>777074.3798723466</v>
+        <v>243690.4912943185</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>2281681.737626403</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>3058756.11749875</v>
+        <v>2525372.228920721</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>294.2735563350448</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>290.4842892973011</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>359022.1709255188</v>
+        <v>112589.3369856884</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>598754.4975685029</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>957776.6684940218</v>
+        <v>711343.8345541913</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.1666995241497</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.4337195732409</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>513008.6327431313</v>
+        <v>160879.4846278899</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>1197508.995137006</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1710517.627880137</v>
+        <v>1358388.479764896</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.6278434927438</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.5590607073146</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>725848.9790703083</v>
+        <v>227626.2078595104</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1796263.492705509</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>2522112.471775817</v>
+        <v>2023889.700565019</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.0889874613379</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.7723878826855</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>997543.2099070501</v>
+        <v>312829.5066805501</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>2395017.990274012</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>3392561.200181062</v>
+        <v>2707847.496954562</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.550131429932</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.0737010993536</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>413467.9952158286</v>
+        <v>129663.5450845442</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>602337.2611474603</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>1015805.256363289</v>
+        <v>732000.8062320044</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.1754425622656</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.5994414012496</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>590806.5520352495</v>
+        <v>185276.9086905472</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>1204674.522294921</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1795481.07433017</v>
+        <v>1389951.430985468</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.6453295689755</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.7688074455452</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>835924.2033214626</v>
+        <v>262145.7933353598</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>1807011.783442381</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>2642935.986763843</v>
+        <v>2069157.576777741</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.1152165756855</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>308.0398292931326</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>1148820.949074468</v>
+        <v>360270.1990189821</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>2409349.044589841</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>3558169.993664309</v>
+        <v>2769619.243608824</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.5851035823954</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.4125069440116</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>436322.6626620223</v>
+        <v>136830.7677888188</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>581168.725143473</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>1017491.387805495</v>
+        <v>717999.4929322918</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1237848647755</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.6809758015581</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>623463.7042889558</v>
+        <v>195518.1901986138</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>1162337.450286946</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1785801.154575902</v>
+        <v>1357855.64048556</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.5420141739954</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.8370186684792</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>882130.3665510104</v>
+        <v>276636.044088555</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>1743506.175430419</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>2625636.541981429</v>
+        <v>2020142.219518974</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.9602434832154</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>317.1006830796179</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.1602656905352974</v>
+        <v>0.1232194911424156</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>1212322.649448187</v>
+        <v>380184.3294586424</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>2324674.900573892</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>3536997.550022079</v>
+        <v>2704859.230032534</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.3784727924353</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.4719690349743</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.09794664995915807</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.09794664995915807</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.09794664995915807</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.09794664995915807</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.1232194911424156</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.1232194911424156</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.1232194911424156</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.1232194911424156</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>